--- a/va_facility_data_2025-02-20/Shelbyville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Shelbyville%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Shelbyville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Shelbyville%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R47a4926d6c9a48779605b6ea546c1e7e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbabce99c65d34f6eac194e94fde403f0"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb45dfc9b1ca14a17bd64b7f464bfe204"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R180bcc7897664116ab27e3a056b63a26"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7bf7bab2e69b44f59b32291934313083"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbeae16f3aca04b58a4bc7812e6e01c28"/>
   </x:sheets>
 </x:workbook>
 </file>
